--- a/medicine/Enfance/Timothée_Trimm/Timothée_Trimm.xlsx
+++ b/medicine/Enfance/Timothée_Trimm/Timothée_Trimm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Timoth%C3%A9e_Trimm</t>
+          <t>Timothée_Trimm</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Timothée Trimm, nom de plume d’Antoine Joseph Napoléon Lespès, dit Léo Lespès, né à Bouchain (Nord) le 18 juin 1815 et mort à Paris le 22 avril 1875, est un chroniqueur, écrivain et journaliste français.
 Il fut, en 1862, l'un des fondateurs du Petit Journal.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Timoth%C3%A9e_Trimm</t>
+          <t>Timothée_Trimm</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Avant de pratiquer le journalisme et de collaborer besogneusement à diverses feuilles éphémères, Léo Lespès a entamé une carrière militaire, comme son père, et travaillé un moment au côté de Vidocq comme détective privé.
 Devenu rédacteur en chef et éditorialiste polyvalent d'un quotidien au succès immédiat, Le Petit Journal, auquel il fournissait des chroniques fantaisistes et des articles de vulgarisation, il prit le pseudonyme de Timothée Trimm et devint rapidement riche et populaire. Il se distingua par son train de vie élevé et ses excentricités, qui lui valurent un surcroît de prestige. Mais à partir de la guerre de 1870, il connut la précarité et la maladie.
